--- a/planilha_modelo_template_entradas.xlsx
+++ b/planilha_modelo_template_entradas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>ID do Cenário</t>
   </si>
@@ -52,16 +52,31 @@
     <t>3 - ICMS ST Entrada - Déb. Posterior</t>
   </si>
   <si>
-    <t>5 - ICMS ST Entrada - Transferência</t>
-  </si>
-  <si>
-    <t>2023-02-28 00:00:00</t>
+    <t>10.01.2023</t>
+  </si>
+  <si>
+    <t>09.01.2023</t>
+  </si>
+  <si>
+    <t>02.01.2023</t>
+  </si>
+  <si>
+    <t>05.01.2023</t>
+  </si>
+  <si>
+    <t>06.01.2023</t>
+  </si>
+  <si>
+    <t>03.01.2023</t>
   </si>
   <si>
     <t>26002600EX</t>
   </si>
   <si>
     <t>20002000EX</t>
+  </si>
+  <si>
+    <t>26002600IN</t>
   </si>
   <si>
     <t>20002000IN</t>
@@ -422,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>12031007</v>
+        <v>12200005</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>33958592</v>
+        <v>33616359</v>
       </c>
       <c r="F2">
         <v>2000</v>
       </c>
       <c r="G2">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="H2">
-        <v>2502</v>
+        <v>1000</v>
       </c>
       <c r="I2">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9128.951488800005</v>
+        <v>88.76227500000002</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,28 +521,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>12031002</v>
+        <v>12151001</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>33958592</v>
+        <v>33603968</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="H3">
-        <v>2502</v>
+        <v>1000</v>
       </c>
       <c r="I3">
-        <v>32.16048696000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>321.6048696000001</v>
+        <v>380.70830772</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -541,28 +556,28 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>12031002</v>
+        <v>12200005</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>33958592</v>
+        <v>33601802</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4">
-        <v>2021</v>
+        <v>2900</v>
       </c>
       <c r="H4">
-        <v>2502</v>
+        <v>1100</v>
       </c>
       <c r="I4">
-        <v>964.8146088000003</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9648.146088000003</v>
+        <v>3774.773604000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -570,34 +585,34 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5">
-        <v>12200001</v>
+        <v>12151001</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>33958592</v>
+        <v>33618668</v>
       </c>
       <c r="F5">
         <v>2000</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>2900</v>
       </c>
       <c r="H5">
-        <v>2502</v>
+        <v>1100</v>
       </c>
       <c r="I5">
-        <v>1237.20836148</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12372.0836148</v>
+        <v>1051.462944</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -608,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>12031007</v>
+        <v>12200005</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>33958592</v>
+        <v>33543339</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G6">
-        <v>2021</v>
+        <v>3000</v>
       </c>
       <c r="H6">
-        <v>2502</v>
+        <v>1600</v>
       </c>
       <c r="I6">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9128.951488800005</v>
+        <v>7251.362269200001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -643,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12031007</v>
+        <v>12151001</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>33958592</v>
+        <v>33571713</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G7">
-        <v>2021</v>
+        <v>3000</v>
       </c>
       <c r="H7">
-        <v>2502</v>
+        <v>1600</v>
       </c>
       <c r="I7">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9128.951488800005</v>
+        <v>3134.917296000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -678,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>12031007</v>
+        <v>12200005</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>33958592</v>
+        <v>33623732</v>
       </c>
       <c r="F8">
         <v>2000</v>
       </c>
       <c r="G8">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="H8">
-        <v>2502</v>
+        <v>1000</v>
       </c>
       <c r="I8">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9128.951488800005</v>
+        <v>64.79646075000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -713,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>12031007</v>
+        <v>12151001</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>33958592</v>
+        <v>33637919</v>
       </c>
       <c r="F9">
         <v>2000</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="H9">
-        <v>2502</v>
+        <v>1000</v>
       </c>
       <c r="I9">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9128.951488800005</v>
+        <v>277.9170646356</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -748,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>12031007</v>
+        <v>12200005</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>33958592</v>
+        <v>33694667</v>
       </c>
       <c r="F10">
         <v>2000</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2900</v>
       </c>
       <c r="H10">
-        <v>2502</v>
+        <v>1100</v>
       </c>
       <c r="I10">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9128.951488800005</v>
+        <v>2755.584730920001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -783,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>12031007</v>
+        <v>12151001</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>33958592</v>
+        <v>33708854</v>
       </c>
       <c r="F11">
         <v>2000</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2900</v>
       </c>
       <c r="H11">
-        <v>2502</v>
+        <v>1100</v>
       </c>
       <c r="I11">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9128.951488800005</v>
+        <v>767.5679491200001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -818,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>12031007</v>
+        <v>12200005</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>33958592</v>
+        <v>33765602</v>
       </c>
       <c r="F12">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G12">
-        <v>2021</v>
+        <v>3000</v>
       </c>
       <c r="H12">
-        <v>2502</v>
+        <v>1600</v>
       </c>
       <c r="I12">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9128.951488800005</v>
+        <v>5293.494456516</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -856,345 +871,30 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>12031007</v>
+        <v>12151001</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>33958592</v>
+        <v>33779789</v>
       </c>
       <c r="F13">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G13">
-        <v>2021</v>
+        <v>3000</v>
       </c>
       <c r="H13">
-        <v>2502</v>
+        <v>1600</v>
       </c>
       <c r="I13">
-        <v>912.8951488800005</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9128.951488800005</v>
+        <v>2288.48962608</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>12031007</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>33958592</v>
-      </c>
-      <c r="F14">
-        <v>2000</v>
-      </c>
-      <c r="G14">
-        <v>2021</v>
-      </c>
-      <c r="H14">
-        <v>2502</v>
-      </c>
-      <c r="I14">
-        <v>912.8951488800005</v>
-      </c>
-      <c r="J14">
-        <v>9128.951488800005</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>12031002</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>33889988</v>
-      </c>
-      <c r="F15">
-        <v>2600</v>
-      </c>
-      <c r="G15">
-        <v>2601</v>
-      </c>
-      <c r="H15">
-        <v>2601</v>
-      </c>
-      <c r="I15">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J15">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>12031002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>33889988</v>
-      </c>
-      <c r="F16">
-        <v>2600</v>
-      </c>
-      <c r="G16">
-        <v>2601</v>
-      </c>
-      <c r="H16">
-        <v>2601</v>
-      </c>
-      <c r="I16">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J16">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>12031002</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>33889988</v>
-      </c>
-      <c r="F17">
-        <v>2600</v>
-      </c>
-      <c r="G17">
-        <v>2601</v>
-      </c>
-      <c r="H17">
-        <v>2601</v>
-      </c>
-      <c r="I17">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J17">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>12031002</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>33889988</v>
-      </c>
-      <c r="F18">
-        <v>2600</v>
-      </c>
-      <c r="G18">
-        <v>2601</v>
-      </c>
-      <c r="H18">
-        <v>2601</v>
-      </c>
-      <c r="I18">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J18">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>12031002</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>33889988</v>
-      </c>
-      <c r="F19">
-        <v>2600</v>
-      </c>
-      <c r="G19">
-        <v>2601</v>
-      </c>
-      <c r="H19">
-        <v>2601</v>
-      </c>
-      <c r="I19">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J19">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>12031002</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>33889988</v>
-      </c>
-      <c r="F20">
-        <v>2600</v>
-      </c>
-      <c r="G20">
-        <v>2601</v>
-      </c>
-      <c r="H20">
-        <v>2601</v>
-      </c>
-      <c r="I20">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J20">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>12031002</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>33889988</v>
-      </c>
-      <c r="F21">
-        <v>2000</v>
-      </c>
-      <c r="G21">
-        <v>2021</v>
-      </c>
-      <c r="H21">
-        <v>2502</v>
-      </c>
-      <c r="I21">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J21">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>12031002</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>33889988</v>
-      </c>
-      <c r="F22">
-        <v>2000</v>
-      </c>
-      <c r="G22">
-        <v>2021</v>
-      </c>
-      <c r="H22">
-        <v>2502</v>
-      </c>
-      <c r="I22">
-        <v>32.16048696000001</v>
-      </c>
-      <c r="J22">
-        <v>321.6048696000001</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
     </row>
